--- a/Sleep-Paralysis-Demon/record.xlsx
+++ b/Sleep-Paralysis-Demon/record.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D1D51C-B9DF-4D59-9D1F-D425AC72AA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACFBAC7-6711-475C-AD9C-3C03BDF0D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>jack</t>
   </si>
@@ -41,21 +39,24 @@
   <si>
     <t>hanrick</t>
   </si>
-  <si>
-    <t>date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,49 +365,49 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="M1">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -429,36 +431,81 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -737,5 +784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sleep-Paralysis-Demon/record.xlsx
+++ b/Sleep-Paralysis-Demon/record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACFBAC7-6711-475C-AD9C-3C03BDF0D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B437557C-439B-4FFA-BC56-37F3FB43F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,12 +390,12 @@
         <v>5</v>
       </c>
       <c r="M1">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -511,118 +511,343 @@
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>143</v>
+      </c>
+      <c r="D21">
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -784,6 +1009,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>